--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/C3-Cr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/C3-Cr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H2">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I2">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J2">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.6996193333333335</v>
+        <v>0.3534533333333333</v>
       </c>
       <c r="N2">
-        <v>2.098858</v>
+        <v>1.06036</v>
       </c>
       <c r="O2">
-        <v>0.5038012080525315</v>
+        <v>0.651000881008586</v>
       </c>
       <c r="P2">
-        <v>0.5380088327597005</v>
+        <v>0.651000881008586</v>
       </c>
       <c r="Q2">
-        <v>0.3663717551446667</v>
+        <v>0.5068322866133333</v>
       </c>
       <c r="R2">
-        <v>3.297345796302</v>
+        <v>4.56149057952</v>
       </c>
       <c r="S2">
-        <v>0.0007112100828525843</v>
+        <v>0.002527835584777136</v>
       </c>
       <c r="T2">
-        <v>0.0007600082689051444</v>
+        <v>0.002529911880126003</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H3">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I3">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J3">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.374681</v>
       </c>
       <c r="O3">
-        <v>0.08993688016737221</v>
+        <v>0.2300328766618677</v>
       </c>
       <c r="P3">
-        <v>0.09604350912126369</v>
+        <v>0.2300328766618677</v>
       </c>
       <c r="Q3">
-        <v>0.06540344110433333</v>
+        <v>0.1790905239546667</v>
       </c>
       <c r="R3">
-        <v>0.5886309699389999</v>
+        <v>1.611814715592</v>
       </c>
       <c r="S3">
-        <v>0.000126962807895193</v>
+        <v>0.0008932173646119076</v>
       </c>
       <c r="T3">
-        <v>0.0001356740942939676</v>
+        <v>0.0008939510290443725</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H4">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I4">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J4">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,33 +682,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1351616666666667</v>
+        <v>0.06459133333333333</v>
       </c>
       <c r="N4">
-        <v>0.405485</v>
+        <v>0.193774</v>
       </c>
       <c r="O4">
-        <v>0.09733094513644117</v>
+        <v>0.1189662423295463</v>
       </c>
       <c r="P4">
-        <v>0.1039396240963262</v>
+        <v>0.1189662423295463</v>
       </c>
       <c r="Q4">
-        <v>0.07078051546833332</v>
+        <v>0.09262035488533334</v>
       </c>
       <c r="R4">
-        <v>0.6370246392149999</v>
+        <v>0.8335831939680001</v>
       </c>
       <c r="S4">
-        <v>0.0001374009201410862</v>
+        <v>0.0004619457661592335</v>
       </c>
       <c r="T4">
-        <v>0.0001468283956880372</v>
+        <v>0.0004623251958387115</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5236729999999999</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H5">
-        <v>1.571019</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I5">
-        <v>0.001411687926676083</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J5">
-        <v>0.001412631582657676</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.264885</v>
+        <v>0.3534533333333333</v>
       </c>
       <c r="N5">
-        <v>0.52977</v>
+        <v>1.06036</v>
       </c>
       <c r="O5">
-        <v>0.1907457050381609</v>
+        <v>0.651000881008586</v>
       </c>
       <c r="P5">
-        <v>0.1357981051272199</v>
+        <v>0.651000881008586</v>
       </c>
       <c r="Q5">
-        <v>0.138713122605</v>
+        <v>102.8187599567334</v>
       </c>
       <c r="R5">
-        <v>0.8322787356299998</v>
+        <v>925.3688396106</v>
       </c>
       <c r="S5">
-        <v>0.000269273408867689</v>
+        <v>0.5128105037230506</v>
       </c>
       <c r="T5">
-        <v>0.0001918326921677781</v>
+        <v>0.5132317123135706</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5236729999999999</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H6">
-        <v>1.571019</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I6">
-        <v>0.001411687926676083</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J6">
-        <v>0.001412631582657676</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1641216666666666</v>
+        <v>0.1248936666666667</v>
       </c>
       <c r="N6">
-        <v>0.4923649999999999</v>
+        <v>0.374681</v>
       </c>
       <c r="O6">
-        <v>0.1181852616054943</v>
+        <v>0.2300328766618677</v>
       </c>
       <c r="P6">
-        <v>0.1262099288954898</v>
+        <v>0.2300328766618677</v>
       </c>
       <c r="Q6">
-        <v>0.08594608554833331</v>
+        <v>36.33127975343167</v>
       </c>
       <c r="R6">
-        <v>0.7735147699349998</v>
+        <v>326.981517780885</v>
       </c>
       <c r="S6">
-        <v>0.0001668407069195307</v>
+        <v>0.1812029427227134</v>
       </c>
       <c r="T6">
-        <v>0.0001782881316027484</v>
+        <v>0.1813517778880389</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>872.6930850000001</v>
       </c>
       <c r="I7">
-        <v>0.7841854820267643</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J7">
-        <v>0.78470967813754</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.6996193333333335</v>
+        <v>0.06459133333333333</v>
       </c>
       <c r="N7">
-        <v>2.098858</v>
+        <v>0.193774</v>
       </c>
       <c r="O7">
-        <v>0.5038012080525315</v>
+        <v>0.1189662423295463</v>
       </c>
       <c r="P7">
-        <v>0.5380088327597005</v>
+        <v>0.1189662423295463</v>
       </c>
       <c r="Q7">
-        <v>203.5176514441034</v>
+        <v>18.78946998364334</v>
       </c>
       <c r="R7">
-        <v>1831.658862996931</v>
+        <v>169.10522985279</v>
       </c>
       <c r="S7">
-        <v>0.3950735931823406</v>
+        <v>0.09371283578070694</v>
       </c>
       <c r="T7">
-        <v>0.4221807379900182</v>
+        <v>0.09378980895342133</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>290.8976950000001</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H8">
-        <v>872.6930850000001</v>
+        <v>164.122079</v>
       </c>
       <c r="I8">
-        <v>0.7841854820267643</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J8">
-        <v>0.78470967813754</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.1248936666666667</v>
+        <v>0.3534533333333333</v>
       </c>
       <c r="N8">
-        <v>0.374681</v>
+        <v>1.06036</v>
       </c>
       <c r="O8">
-        <v>0.08993688016737221</v>
+        <v>0.651000881008586</v>
       </c>
       <c r="P8">
-        <v>0.09604350912126369</v>
+        <v>0.651000881008586</v>
       </c>
       <c r="Q8">
-        <v>36.33127975343167</v>
+        <v>19.33649863204889</v>
       </c>
       <c r="R8">
-        <v>326.981517780885</v>
+        <v>174.02848768844</v>
       </c>
       <c r="S8">
-        <v>0.07052719572603411</v>
+        <v>0.0964411514777435</v>
       </c>
       <c r="T8">
-        <v>0.07536627112974673</v>
+        <v>0.09652036561471446</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>290.8976950000001</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H9">
-        <v>872.6930850000001</v>
+        <v>164.122079</v>
       </c>
       <c r="I9">
-        <v>0.7841854820267643</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J9">
-        <v>0.78470967813754</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,33 +992,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1351616666666667</v>
+        <v>0.1248936666666667</v>
       </c>
       <c r="N9">
-        <v>0.405485</v>
+        <v>0.374681</v>
       </c>
       <c r="O9">
-        <v>0.09733094513644117</v>
+        <v>0.2300328766618677</v>
       </c>
       <c r="P9">
-        <v>0.1039396240963262</v>
+        <v>0.2300328766618677</v>
       </c>
       <c r="Q9">
-        <v>39.31821728569167</v>
+        <v>6.83260274242211</v>
       </c>
       <c r="R9">
-        <v>353.863955571225</v>
+        <v>61.49342468179899</v>
       </c>
       <c r="S9">
-        <v>0.07632551412794067</v>
+        <v>0.03407773499267458</v>
       </c>
       <c r="T9">
-        <v>0.08156242897036506</v>
+        <v>0.03410572551669888</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>290.8976950000001</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H10">
-        <v>872.6930850000001</v>
+        <v>164.122079</v>
       </c>
       <c r="I10">
-        <v>0.7841854820267643</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J10">
-        <v>0.78470967813754</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.264885</v>
+        <v>0.06459133333333333</v>
       </c>
       <c r="N10">
-        <v>0.52977</v>
+        <v>0.193774</v>
       </c>
       <c r="O10">
-        <v>0.1907457050381609</v>
+        <v>0.1189662423295463</v>
       </c>
       <c r="P10">
-        <v>0.1357981051272199</v>
+        <v>0.1189662423295463</v>
       </c>
       <c r="Q10">
-        <v>77.05443594007501</v>
+        <v>3.533621304016222</v>
       </c>
       <c r="R10">
-        <v>462.32661564045</v>
+        <v>31.802591736146</v>
       </c>
       <c r="S10">
-        <v>0.1495800126498852</v>
+        <v>0.01762400287303206</v>
       </c>
       <c r="T10">
-        <v>0.1065620873660685</v>
+        <v>0.01763847874931691</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>290.8976950000001</v>
+        <v>0.909222</v>
       </c>
       <c r="H11">
-        <v>872.6930850000001</v>
+        <v>1.818444</v>
       </c>
       <c r="I11">
-        <v>0.7841854820267643</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J11">
-        <v>0.78470967813754</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.1641216666666666</v>
+        <v>0.3534533333333333</v>
       </c>
       <c r="N11">
-        <v>0.4923649999999999</v>
+        <v>1.06036</v>
       </c>
       <c r="O11">
-        <v>0.1181852616054943</v>
+        <v>0.651000881008586</v>
       </c>
       <c r="P11">
-        <v>0.1262099288954898</v>
+        <v>0.651000881008586</v>
       </c>
       <c r="Q11">
-        <v>47.74261453289166</v>
+        <v>0.32136754664</v>
       </c>
       <c r="R11">
-        <v>429.683530796025</v>
+        <v>1.92820527984</v>
       </c>
       <c r="S11">
-        <v>0.09267916634056378</v>
+        <v>0.001602826697599235</v>
       </c>
       <c r="T11">
-        <v>0.09903815268134158</v>
+        <v>0.001069428810549517</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>38.68424166666667</v>
+        <v>0.909222</v>
       </c>
       <c r="H12">
-        <v>116.052725</v>
+        <v>1.818444</v>
       </c>
       <c r="I12">
-        <v>0.1042827812651277</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J12">
-        <v>0.1043524900644015</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.6996193333333335</v>
+        <v>0.1248936666666667</v>
       </c>
       <c r="N12">
-        <v>2.098858</v>
+        <v>0.374681</v>
       </c>
       <c r="O12">
-        <v>0.5038012080525315</v>
+        <v>0.2300328766618677</v>
       </c>
       <c r="P12">
-        <v>0.5380088327597005</v>
+        <v>0.2300328766618677</v>
       </c>
       <c r="Q12">
-        <v>27.06424336533889</v>
+        <v>0.113556069394</v>
       </c>
       <c r="R12">
-        <v>243.57819028805</v>
+        <v>0.681336416364</v>
       </c>
       <c r="S12">
-        <v>0.05253779118044923</v>
+        <v>0.0005663630369715747</v>
       </c>
       <c r="T12">
-        <v>0.05614256137511691</v>
+        <v>0.0003778854881035719</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,25 +1213,25 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>38.68424166666667</v>
+        <v>0.909222</v>
       </c>
       <c r="H13">
-        <v>116.052725</v>
+        <v>1.818444</v>
       </c>
       <c r="I13">
-        <v>0.1042827812651277</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J13">
-        <v>0.1043524900644015</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1240,33 +1240,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.1248936666666667</v>
+        <v>0.06459133333333333</v>
       </c>
       <c r="N13">
-        <v>0.374681</v>
+        <v>0.193774</v>
       </c>
       <c r="O13">
-        <v>0.08993688016737221</v>
+        <v>0.1189662423295463</v>
       </c>
       <c r="P13">
-        <v>0.09604350912126369</v>
+        <v>0.1189662423295463</v>
       </c>
       <c r="Q13">
-        <v>4.831416783969444</v>
+        <v>0.058727861276</v>
       </c>
       <c r="R13">
-        <v>43.482751055725</v>
+        <v>0.352367167656</v>
       </c>
       <c r="S13">
-        <v>0.009378868002162078</v>
+        <v>0.0002929063153085689</v>
       </c>
       <c r="T13">
-        <v>0.01002237933132693</v>
+        <v>0.0001954312670559264</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,51 +1284,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>38.68424166666667</v>
+        <v>21.33956566666667</v>
       </c>
       <c r="H14">
-        <v>116.052725</v>
+        <v>64.018697</v>
       </c>
       <c r="I14">
-        <v>0.1042827812651277</v>
+        <v>0.05778573366465133</v>
       </c>
       <c r="J14">
-        <v>0.1043524900644015</v>
+        <v>0.05783319729352075</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.1351616666666667</v>
+        <v>0.3534533333333333</v>
       </c>
       <c r="N14">
-        <v>0.405485</v>
+        <v>1.06036</v>
       </c>
       <c r="O14">
-        <v>0.09733094513644117</v>
+        <v>0.651000881008586</v>
       </c>
       <c r="P14">
-        <v>0.1039396240963262</v>
+        <v>0.651000881008586</v>
       </c>
       <c r="Q14">
-        <v>5.228626577402777</v>
+        <v>7.54254061676889</v>
       </c>
       <c r="R14">
-        <v>47.057639196625</v>
+        <v>67.88286555092</v>
       </c>
       <c r="S14">
-        <v>0.01014994166199164</v>
+        <v>0.03761856352541552</v>
       </c>
       <c r="T14">
-        <v>0.01084635859080951</v>
+        <v>0.03764946238962538</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,7 +1337,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,51 +1346,51 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>38.68424166666667</v>
+        <v>21.33956566666667</v>
       </c>
       <c r="H15">
-        <v>116.052725</v>
+        <v>64.018697</v>
       </c>
       <c r="I15">
-        <v>0.1042827812651277</v>
+        <v>0.05778573366465133</v>
       </c>
       <c r="J15">
-        <v>0.1043524900644015</v>
+        <v>0.05783319729352075</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.264885</v>
+        <v>0.1248936666666667</v>
       </c>
       <c r="N15">
-        <v>0.52977</v>
+        <v>0.374681</v>
       </c>
       <c r="O15">
-        <v>0.1907457050381609</v>
+        <v>0.2300328766618677</v>
       </c>
       <c r="P15">
-        <v>0.1357981051272199</v>
+        <v>0.2300328766618677</v>
       </c>
       <c r="Q15">
-        <v>10.246875353875</v>
+        <v>2.665176601184112</v>
       </c>
       <c r="R15">
-        <v>61.48125212324999</v>
+        <v>23.986589410657</v>
       </c>
       <c r="S15">
-        <v>0.0198914926357571</v>
+        <v>0.01329261854489627</v>
       </c>
       <c r="T15">
-        <v>0.01417087041605277</v>
+        <v>0.01330353673998192</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>38.68424166666667</v>
+        <v>21.33956566666667</v>
       </c>
       <c r="H16">
-        <v>116.052725</v>
+        <v>64.018697</v>
       </c>
       <c r="I16">
-        <v>0.1042827812651277</v>
+        <v>0.05778573366465133</v>
       </c>
       <c r="J16">
-        <v>0.1043524900644015</v>
+        <v>0.05783319729352075</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,648 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1641216666666666</v>
+        <v>0.06459133333333333</v>
       </c>
       <c r="N16">
-        <v>0.4923649999999999</v>
+        <v>0.193774</v>
       </c>
       <c r="O16">
-        <v>0.1181852616054943</v>
+        <v>0.1189662423295463</v>
       </c>
       <c r="P16">
-        <v>0.1262099288954898</v>
+        <v>0.1189662423295463</v>
       </c>
       <c r="Q16">
-        <v>6.348922216069443</v>
+        <v>1.378350999164222</v>
       </c>
       <c r="R16">
-        <v>57.14029994462499</v>
+        <v>12.405158992478</v>
       </c>
       <c r="S16">
-        <v>0.01232468778476766</v>
+        <v>0.006874551594339533</v>
       </c>
       <c r="T16">
-        <v>0.01317032035109542</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.7434085</v>
-      </c>
-      <c r="H17">
-        <v>1.486817</v>
-      </c>
-      <c r="I17">
-        <v>0.002004038405719556</v>
-      </c>
-      <c r="J17">
-        <v>0.001336918682608127</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.6996193333333335</v>
-      </c>
-      <c r="N17">
-        <v>2.098858</v>
-      </c>
-      <c r="O17">
-        <v>0.5038012080525315</v>
-      </c>
-      <c r="P17">
-        <v>0.5380088327597005</v>
-      </c>
-      <c r="Q17">
-        <v>0.5201029591643335</v>
-      </c>
-      <c r="R17">
-        <v>3.120617754986001</v>
-      </c>
-      <c r="S17">
-        <v>0.001009636969785182</v>
-      </c>
-      <c r="T17">
-        <v>0.0007192740599246351</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.7434085</v>
-      </c>
-      <c r="H18">
-        <v>1.486817</v>
-      </c>
-      <c r="I18">
-        <v>0.002004038405719556</v>
-      </c>
-      <c r="J18">
-        <v>0.001336918682608127</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.1248936666666667</v>
-      </c>
-      <c r="N18">
-        <v>0.374681</v>
-      </c>
-      <c r="O18">
-        <v>0.08993688016737221</v>
-      </c>
-      <c r="P18">
-        <v>0.09604350912126369</v>
-      </c>
-      <c r="Q18">
-        <v>0.09284701339616667</v>
-      </c>
-      <c r="R18">
-        <v>0.557082080377</v>
-      </c>
-      <c r="S18">
-        <v>0.0001802369619460114</v>
-      </c>
-      <c r="T18">
-        <v>0.0001284023616874615</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.7434085</v>
-      </c>
-      <c r="H19">
-        <v>1.486817</v>
-      </c>
-      <c r="I19">
-        <v>0.002004038405719556</v>
-      </c>
-      <c r="J19">
-        <v>0.001336918682608127</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.1351616666666667</v>
-      </c>
-      <c r="N19">
-        <v>0.405485</v>
-      </c>
-      <c r="O19">
-        <v>0.09733094513644117</v>
-      </c>
-      <c r="P19">
-        <v>0.1039396240963262</v>
-      </c>
-      <c r="Q19">
-        <v>0.1004803318741667</v>
-      </c>
-      <c r="R19">
-        <v>0.602881991245</v>
-      </c>
-      <c r="S19">
-        <v>0.0001950549521184111</v>
-      </c>
-      <c r="T19">
-        <v>0.0001389588253176444</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.7434085</v>
-      </c>
-      <c r="H20">
-        <v>1.486817</v>
-      </c>
-      <c r="I20">
-        <v>0.002004038405719556</v>
-      </c>
-      <c r="J20">
-        <v>0.001336918682608127</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.5</v>
-      </c>
-      <c r="M20">
-        <v>0.264885</v>
-      </c>
-      <c r="N20">
-        <v>0.52977</v>
-      </c>
-      <c r="O20">
-        <v>0.1907457050381609</v>
-      </c>
-      <c r="P20">
-        <v>0.1357981051272199</v>
-      </c>
-      <c r="Q20">
-        <v>0.1969177605225</v>
-      </c>
-      <c r="R20">
-        <v>0.7876710420899999</v>
-      </c>
-      <c r="S20">
-        <v>0.0003822617186225286</v>
-      </c>
-      <c r="T20">
-        <v>0.0001815510238073628</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.7434085</v>
-      </c>
-      <c r="H21">
-        <v>1.486817</v>
-      </c>
-      <c r="I21">
-        <v>0.002004038405719556</v>
-      </c>
-      <c r="J21">
-        <v>0.001336918682608127</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.1641216666666666</v>
-      </c>
-      <c r="N21">
-        <v>0.4923649999999999</v>
-      </c>
-      <c r="O21">
-        <v>0.1181852616054943</v>
-      </c>
-      <c r="P21">
-        <v>0.1262099288954898</v>
-      </c>
-      <c r="Q21">
-        <v>0.1220094420341667</v>
-      </c>
-      <c r="R21">
-        <v>0.7320566522049999</v>
-      </c>
-      <c r="S21">
-        <v>0.0002368478032474235</v>
-      </c>
-      <c r="T21">
-        <v>0.0001687324118710236</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>40.106198</v>
-      </c>
-      <c r="H22">
-        <v>120.318594</v>
-      </c>
-      <c r="I22">
-        <v>0.1081160103757125</v>
-      </c>
-      <c r="J22">
-        <v>0.1081882815327926</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.6996193333333335</v>
-      </c>
-      <c r="N22">
-        <v>2.098858</v>
-      </c>
-      <c r="O22">
-        <v>0.5038012080525315</v>
-      </c>
-      <c r="P22">
-        <v>0.5380088327597005</v>
-      </c>
-      <c r="Q22">
-        <v>28.05907150729467</v>
-      </c>
-      <c r="R22">
-        <v>252.531643565652</v>
-      </c>
-      <c r="S22">
-        <v>0.05446897663710397</v>
-      </c>
-      <c r="T22">
-        <v>0.05820625106573563</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>40.106198</v>
-      </c>
-      <c r="H23">
-        <v>120.318594</v>
-      </c>
-      <c r="I23">
-        <v>0.1081160103757125</v>
-      </c>
-      <c r="J23">
-        <v>0.1081882815327926</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M23">
-        <v>0.1248936666666667</v>
-      </c>
-      <c r="N23">
-        <v>0.374681</v>
-      </c>
-      <c r="O23">
-        <v>0.08993688016737221</v>
-      </c>
-      <c r="P23">
-        <v>0.09604350912126369</v>
-      </c>
-      <c r="Q23">
-        <v>5.009010124279333</v>
-      </c>
-      <c r="R23">
-        <v>45.081091118514</v>
-      </c>
-      <c r="S23">
-        <v>0.009723616669334823</v>
-      </c>
-      <c r="T23">
-        <v>0.01039078220420861</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>40.106198</v>
-      </c>
-      <c r="H24">
-        <v>120.318594</v>
-      </c>
-      <c r="I24">
-        <v>0.1081160103757125</v>
-      </c>
-      <c r="J24">
-        <v>0.1081882815327926</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.1351616666666667</v>
-      </c>
-      <c r="N24">
-        <v>0.405485</v>
-      </c>
-      <c r="O24">
-        <v>0.09733094513644117</v>
-      </c>
-      <c r="P24">
-        <v>0.1039396240963262</v>
-      </c>
-      <c r="Q24">
-        <v>5.420820565343333</v>
-      </c>
-      <c r="R24">
-        <v>48.78738508809</v>
-      </c>
-      <c r="S24">
-        <v>0.01052303347424938</v>
-      </c>
-      <c r="T24">
-        <v>0.01124504931414598</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>40.106198</v>
-      </c>
-      <c r="H25">
-        <v>120.318594</v>
-      </c>
-      <c r="I25">
-        <v>0.1081160103757125</v>
-      </c>
-      <c r="J25">
-        <v>0.1081882815327926</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.5</v>
-      </c>
-      <c r="M25">
-        <v>0.264885</v>
-      </c>
-      <c r="N25">
-        <v>0.52977</v>
-      </c>
-      <c r="O25">
-        <v>0.1907457050381609</v>
-      </c>
-      <c r="P25">
-        <v>0.1357981051272199</v>
-      </c>
-      <c r="Q25">
-        <v>10.62353025723</v>
-      </c>
-      <c r="R25">
-        <v>63.74118154337999</v>
-      </c>
-      <c r="S25">
-        <v>0.02062266462502839</v>
-      </c>
-      <c r="T25">
-        <v>0.01469176362912344</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>40.106198</v>
-      </c>
-      <c r="H26">
-        <v>120.318594</v>
-      </c>
-      <c r="I26">
-        <v>0.1081160103757125</v>
-      </c>
-      <c r="J26">
-        <v>0.1081882815327926</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.1641216666666666</v>
-      </c>
-      <c r="N26">
-        <v>0.4923649999999999</v>
-      </c>
-      <c r="O26">
-        <v>0.1181852616054943</v>
-      </c>
-      <c r="P26">
-        <v>0.1262099288954898</v>
-      </c>
-      <c r="Q26">
-        <v>6.582296059423332</v>
-      </c>
-      <c r="R26">
-        <v>59.24066453480999</v>
-      </c>
-      <c r="S26">
-        <v>0.01277771896999591</v>
-      </c>
-      <c r="T26">
-        <v>0.01365443531957899</v>
+        <v>0.006880198163913452</v>
       </c>
     </row>
   </sheetData>
